--- a/donation/donations.xlsx
+++ b/donation/donations.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="domestic" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="international" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="literature" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="daily" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="uniform_female" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="uniform_male" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="textbook" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="literature" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="daily" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="uniform_female" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="uniform_male" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -524,6 +525,79 @@
     <t xml:space="preserve">SAT1</t>
   </si>
   <si>
+    <t xml:space="preserve">Best American Essays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">워스</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">워스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">more</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">워스통합</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">앱캠학원교재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">아이비로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">11&amp;12</t>
   </si>
   <si>
@@ -555,79 +629,6 @@
   </si>
   <si>
     <t xml:space="preserve">수학워크북</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best American Essays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">워스</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">워스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">more</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">워스통합</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">앱캠학원교재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">아이비로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">The Glass Menagerie</t>
@@ -3758,10 +3759,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4232,199 +4233,69 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="A35" s="0" t="s">
         <v>66</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>68</v>
+      <c r="E36" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4437,6 +4308,173 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.36"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4640,7 +4678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4986,7 +5024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6755,14 +6793,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/donation/donations.xlsx
+++ b/donation/donations.xlsx
@@ -13,8 +13,8 @@
     <sheet name="literature" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="textbook" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="daily" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="uniform_male" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="uniform_female" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="uniform_female" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="uniform_male" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3747,6 +3747,273 @@
     <t xml:space="preserve">누비</t>
   </si>
   <si>
+    <t xml:space="preserve">박규희</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나윤경</t>
+  </si>
+  <si>
+    <t xml:space="preserve">박지호</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한예지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도수아</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김지수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장한별</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강채연</t>
+  </si>
+  <si>
+    <t xml:space="preserve">피재원</t>
+  </si>
+  <si>
+    <t xml:space="preserve">변유정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동복 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">초록검정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동복 상의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최보윤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이서희</t>
+  </si>
+  <si>
+    <t xml:space="preserve">파랑검정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">박신영</t>
+  </si>
+  <si>
+    <t xml:space="preserve">춘추복 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">아이보리초록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장주은</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이수지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이영주</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이름없음</t>
+  </si>
+  <si>
+    <t xml:space="preserve">검정파랑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이영서</t>
+  </si>
+  <si>
+    <t xml:space="preserve">춘추복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장유나</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하복 상의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하늘남색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하복 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이지영</t>
+  </si>
+  <si>
+    <t xml:space="preserve">허지원</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김희진</t>
+  </si>
+  <si>
+    <t xml:space="preserve">조예진</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정다운</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김도이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빨강검정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이름</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한지유</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이주연A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">박현</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이지현</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이소현</t>
+  </si>
+  <si>
+    <t xml:space="preserve">임세연</t>
+  </si>
+  <si>
+    <t xml:space="preserve">회색핑크</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빨강초록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">천민지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">박지윤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주황검정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유가림</t>
+  </si>
+  <si>
+    <t xml:space="preserve">남색핑크</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이승은</t>
+  </si>
+  <si>
+    <t xml:space="preserve">핑크검정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이재영</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문지원</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이예지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김연신</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주황남색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주황회색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방은호</t>
+  </si>
+  <si>
+    <t xml:space="preserve">겨자남색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">예복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최민서</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아이보리파랑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하양파랑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김나영</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하양하늘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하늘회색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문소정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">파랑회색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연두검정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">회색자주</t>
+  </si>
+  <si>
+    <t xml:space="preserve">회색파랑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">분홍초록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">핫핑크남색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연어남색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인디핑크진회색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오서진</t>
+  </si>
+  <si>
+    <t xml:space="preserve">황주신</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연분홍검정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유화정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연분홍남색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김하경</t>
+  </si>
+  <si>
+    <t xml:space="preserve">살구색군청색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">흰색자주</t>
+  </si>
+  <si>
+    <t xml:space="preserve">흰색검정</t>
+  </si>
+  <si>
     <t xml:space="preserve">강우상</t>
   </si>
   <si>
@@ -3783,27 +4050,12 @@
     <t xml:space="preserve">천호준</t>
   </si>
   <si>
-    <t xml:space="preserve">이름없음</t>
-  </si>
-  <si>
-    <t xml:space="preserve">동복 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">초록검정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">동복 상의</t>
-  </si>
-  <si>
     <t xml:space="preserve">강건</t>
   </si>
   <si>
     <t xml:space="preserve">초록고동</t>
   </si>
   <si>
-    <t xml:space="preserve">파랑검정</t>
-  </si>
-  <si>
     <t xml:space="preserve">윤준</t>
   </si>
   <si>
@@ -3813,33 +4065,15 @@
     <t xml:space="preserve">서익준</t>
   </si>
   <si>
-    <t xml:space="preserve">춘추복 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이보리초록</t>
-  </si>
-  <si>
-    <t xml:space="preserve">황주신</t>
-  </si>
-  <si>
     <t xml:space="preserve">이영재</t>
   </si>
   <si>
-    <t xml:space="preserve">검정파랑</t>
-  </si>
-  <si>
     <t xml:space="preserve">박재호</t>
   </si>
   <si>
     <t xml:space="preserve">김정재</t>
   </si>
   <si>
-    <t xml:space="preserve">하복 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘남색</t>
-  </si>
-  <si>
     <t xml:space="preserve">황철순</t>
   </si>
   <si>
@@ -3852,9 +4086,6 @@
     <t xml:space="preserve">쥐색회색</t>
   </si>
   <si>
-    <t xml:space="preserve">핑크검정</t>
-  </si>
-  <si>
     <t xml:space="preserve">신창민</t>
   </si>
   <si>
@@ -3867,33 +4098,12 @@
     <t xml:space="preserve">한지민</t>
   </si>
   <si>
-    <t xml:space="preserve">주황회색</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">예복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">동복</t>
-  </si>
-  <si>
     <t xml:space="preserve">하늘파랑</t>
   </si>
   <si>
     <t xml:space="preserve">성지호</t>
   </si>
   <si>
-    <t xml:space="preserve">춘추복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">연두검정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">회색자주</t>
-  </si>
-  <si>
     <t xml:space="preserve">최우석</t>
   </si>
   <si>
@@ -3901,216 +4111,6 @@
   </si>
   <si>
     <t xml:space="preserve">조휘상</t>
-  </si>
-  <si>
-    <t xml:space="preserve">회색파랑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">박신영</t>
-  </si>
-  <si>
-    <t xml:space="preserve">분홍초록</t>
-  </si>
-  <si>
-    <t xml:space="preserve">핫핑크남색</t>
-  </si>
-  <si>
-    <t xml:space="preserve">연분홍남색</t>
-  </si>
-  <si>
-    <t xml:space="preserve">연분홍검정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">살구색군청색</t>
-  </si>
-  <si>
-    <t xml:space="preserve">흰색자주</t>
-  </si>
-  <si>
-    <t xml:space="preserve">박규희</t>
-  </si>
-  <si>
-    <t xml:space="preserve">나윤경</t>
-  </si>
-  <si>
-    <t xml:space="preserve">박지호</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한예지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도수아</t>
-  </si>
-  <si>
-    <t xml:space="preserve">김지수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">장한별</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강채연</t>
-  </si>
-  <si>
-    <t xml:space="preserve">피재원</t>
-  </si>
-  <si>
-    <t xml:space="preserve">변유정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최보윤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이서희</t>
-  </si>
-  <si>
-    <t xml:space="preserve">장주은</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이수지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이영주</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이영서</t>
-  </si>
-  <si>
-    <t xml:space="preserve">장유나</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하복 상의</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이지영</t>
-  </si>
-  <si>
-    <t xml:space="preserve">허지원</t>
-  </si>
-  <si>
-    <t xml:space="preserve">김희진</t>
-  </si>
-  <si>
-    <t xml:space="preserve">조예진</t>
-  </si>
-  <si>
-    <t xml:space="preserve">정다운</t>
-  </si>
-  <si>
-    <t xml:space="preserve">김도이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빨강검정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한지유</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이주연A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">박현</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이지현</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이소현</t>
-  </si>
-  <si>
-    <t xml:space="preserve">임세연</t>
-  </si>
-  <si>
-    <t xml:space="preserve">회색핑크</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빨강초록</t>
-  </si>
-  <si>
-    <t xml:space="preserve">천민지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">박지윤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주황검정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">유가림</t>
-  </si>
-  <si>
-    <t xml:space="preserve">남색핑크</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이승은</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이재영</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문지원</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이예지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">김연신</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주황남색</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방은호</t>
-  </si>
-  <si>
-    <t xml:space="preserve">겨자남색</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최민서</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이보리파랑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하양파랑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">김나영</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하양하늘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘회색</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문소정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">파랑회색</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고수정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">연어남색</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인디핑크진회색</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오서진</t>
-  </si>
-  <si>
-    <t xml:space="preserve">유화정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">김하경</t>
-  </si>
-  <si>
-    <t xml:space="preserve">흰색검정</t>
   </si>
 </sst>
 </file>
@@ -8953,17 +8953,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9051,7 +9052,7 @@
         <v>549</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9062,7 +9063,7 @@
         <v>549</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9073,7 +9074,7 @@
         <v>549</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9084,100 +9085,100 @@
         <v>549</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>568</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>573</v>
@@ -9188,79 +9189,79 @@
     </row>
     <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>573</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>573</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>572</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>572</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9268,7 +9269,7 @@
         <v>579</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>581</v>
@@ -9279,7 +9280,7 @@
         <v>579</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>582</v>
@@ -9290,7 +9291,7 @@
         <v>579</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>583</v>
@@ -9301,593 +9302,1143 @@
         <v>579</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>586</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>585</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>554</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>582</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>581</v>
+        <v>603</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C77" s="4" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>558</v>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -9906,18 +10457,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9928,7 +10478,7 @@
         <v>549</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9939,7 +10489,7 @@
         <v>549</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9950,7 +10500,7 @@
         <v>549</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9961,7 +10511,7 @@
         <v>549</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>613</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9972,7 +10522,7 @@
         <v>549</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9983,7 +10533,7 @@
         <v>549</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9994,7 +10544,7 @@
         <v>549</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10005,7 +10555,7 @@
         <v>549</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>611</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10016,7 +10566,7 @@
         <v>549</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10027,7 +10577,7 @@
         <v>549</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10038,183 +10588,183 @@
         <v>549</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>620</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>603</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>573</v>
+        <v>652</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>573</v>
+        <v>654</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>562</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>627</v>
+        <v>567</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>627</v>
+        <v>567</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>624</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>628</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>562</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>562</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10222,10 +10772,10 @@
         <v>579</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10233,10 +10783,10 @@
         <v>579</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10244,10 +10794,10 @@
         <v>579</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10255,1143 +10805,593 @@
         <v>579</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>611</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>618</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>617</v>
+        <v>572</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>643</v>
+        <v>602</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>620</v>
+        <v>659</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>643</v>
+        <v>602</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>645</v>
+        <v>572</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>646</v>
+        <v>602</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>647</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>646</v>
+        <v>602</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>626</v>
+        <v>572</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>562</v>
+        <v>655</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>626</v>
+        <v>670</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>562</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>603</v>
+        <v>664</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>638</v>
+        <v>572</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>625</v>
+        <v>572</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>629</v>
+        <v>661</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>623</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>579</v>
+        <v>623</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D77" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="D81" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="C82" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="D122" s="4" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D130" s="4" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>615</v>
+      <c r="C84" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/donation/donations.xlsx
+++ b/donation/donations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="domestic" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="671">
   <si>
     <t xml:space="preserve">마더텅 한국지리-정답과 해설+문제편</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t xml:space="preserve">수능특강 지구과학1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수능특강 지구과학0</t>
   </si>
   <si>
     <t xml:space="preserve">수능특강 생명과학2</t>
@@ -4244,8 +4241,8 @@
   </sheetPr>
   <dimension ref="A1:A558"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A148" activeCellId="0" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4943,7 +4940,7 @@
     </row>
     <row r="138" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4953,2092 +4950,2092 @@
     </row>
     <row r="140" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7278,472 +7275,472 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -7776,207 +7773,207 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -8009,159 +8006,159 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -8194,747 +8191,747 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -8969,1476 +8966,1476 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>561</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>568</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>568</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>568</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>578</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>578</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>598</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>600</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>578</v>
-      </c>
       <c r="D83" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>578</v>
-      </c>
       <c r="D84" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>578</v>
-      </c>
       <c r="D85" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>578</v>
-      </c>
       <c r="D86" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>578</v>
-      </c>
       <c r="D87" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C89" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D100" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D101" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D102" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D103" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D104" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D105" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D106" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D107" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D108" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D109" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D110" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D111" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D112" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D113" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C125" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C127" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -10459,7 +10456,7 @@
   </sheetPr>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -10472,926 +10469,926 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>561</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>568</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>568</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>568</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D56" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D57" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D58" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D60" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D61" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D62" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D63" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D64" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D65" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D66" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D67" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D68" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D69" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/donation/donations.xlsx
+++ b/donation/donations.xlsx
@@ -4242,7 +4242,7 @@
   <dimension ref="A1:A558"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A148" activeCellId="0" sqref="A148"/>
+      <selection pane="topLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/donation/donations.xlsx
+++ b/donation/donations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="domestic" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="686">
   <si>
     <t xml:space="preserve">마더텅 한국지리-정답과 해설+문제편</t>
   </si>
@@ -2842,7 +2842,22 @@
     <t xml:space="preserve">밀대용 걸레</t>
   </si>
   <si>
-    <t xml:space="preserve">스탠드</t>
+    <t xml:space="preserve">스탠드 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스탠드 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스탠드 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스탠드 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스탠드 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스탠드 6</t>
   </si>
   <si>
     <t xml:space="preserve">헤어드라이기</t>
@@ -3177,7 +3192,22 @@
     <t xml:space="preserve">빨간색 색지</t>
   </si>
   <si>
-    <t xml:space="preserve">스프링 노트</t>
+    <t xml:space="preserve">스프링 노트 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스프링 노트 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스프링 노트 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스프링 노트 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스프링 노트 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스프링 노트 6</t>
   </si>
   <si>
     <t xml:space="preserve">나무 앉은뱅이 책상</t>
@@ -3687,7 +3717,217 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t xml:space="preserve">) 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">선풍기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">작동 여부 확인 안됨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">) 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">선풍기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">작동 여부 확인 안됨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">) 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">선풍기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">작동 여부 확인 안됨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">) 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">선풍기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">작동 여부 확인 안됨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">) 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">선풍기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">작동 여부 확인 안됨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">) 6</t>
     </r>
   </si>
   <si>
@@ -4241,7 +4481,7 @@
   </sheetPr>
   <dimension ref="A1:A558"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C209" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
     </sheetView>
   </sheetViews>
@@ -8179,8 +8419,8 @@
   </sheetPr>
   <dimension ref="A1:A149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8416,257 +8656,257 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8676,262 +8916,262 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -8966,1476 +9206,1476 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -10469,926 +10709,926 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/donation/donations.xlsx
+++ b/donation/donations.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="690">
   <si>
     <t xml:space="preserve">마더텅 한국지리-정답과 해설+문제편</t>
   </si>
@@ -2497,7 +2497,95 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">단 책꽂이</t>
+      <t xml:space="preserve">단 책꽂이 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">단 책꽂이 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">단 책꽂이 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">단 책꽂이 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">단 책꽂이 5</t>
     </r>
   </si>
   <si>
@@ -8420,7 +8508,7 @@
   <dimension ref="A1:A149"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8436,742 +8524,742 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -9206,1476 +9294,1476 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>592</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -10709,926 +10797,926 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
